--- a/supp_data/tcga_positive_sig_path_survivals_nonepi.xlsx
+++ b/supp_data/tcga_positive_sig_path_survivals_nonepi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="974">
   <si>
     <t xml:space="preserve">Head_SCC__APOBEC+Cell.Cycle</t>
   </si>
@@ -2871,6 +2871,72 @@
   </si>
   <si>
     <t xml:space="preserve">p-value of interaction in this model: 0.997873059461099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCa__CL SBS5+HIPPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+HIPPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__CL SBS1+NRF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+NRF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCa__CL SBS5+PI3K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+PI3K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.439404123629936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_cancer__CL SBS5+RTK.RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+RTK.RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.70772688429315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS5+RTK.RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998245126314365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__CL SBS1+RTK.RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+RTK.RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS5+NOTCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+NOTCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.410254125261594</t>
   </si>
 </sst>
 </file>
@@ -3964,6 +4030,1504 @@
         <v>82</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.057573012808424</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.05926260756924</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0214361066198949</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.68579615829073</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.00723572176423316</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.0344744293027933</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.03507556043397</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.466383812650038</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.0739185802931415</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.941075171357485</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.241182083492456</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.785698550626758</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.751851003329925</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.320784413965358</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.748373771562296</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>66</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-17.4371094021394</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0000000267398893804098</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6729.2555768532</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.00259123898668946</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.99793249273289</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.02145932865639</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.77724472094348</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.60901998875229</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.67721806758604</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0934998472378777</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.292547513826448</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.746359781784252</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.459040196913603</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-0.637302606162633</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.523927753707734</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.195565209887461</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.822369715179073</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.737323575554758</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-0.265236615742713</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.790827189414572</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>66</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-18.1371351466605</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.0000000132782942435938</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6628.10716471776</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.0027363973900734</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.997816673494984</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>67</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.576250640446327</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.77935446861525</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.567698858638247</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.01506394046413</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.310075349170018</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>68</v>
+      </c>
+      <c r="B186" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.0571855995889384</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.05885231471373</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.0207749999799742</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.75261610801741</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.00591211778132535</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.237553969103949</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.788554332261932</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.750401231411445</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-0.316569268759233</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.751570457275085</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>66</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-17.4347490570591</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.0000000268030792924187</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6711.44862173436</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.00259776242651973</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.997927287798484</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>67</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.01054959003684</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.74711038470919</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.590322010683177</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.71186161408302</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.0869221741460012</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>68</v>
+      </c>
+      <c r="B219" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>12</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.186872415578216</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.829549567235953</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.736690609127515</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-0.253664717946567</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.799754593656453</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>66</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-18.066358180594</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.0000000142521483442653</v>
+      </c>
+      <c r="D245" t="n">
+        <v>6606.01640529948</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-0.00273483398650067</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.997817920905889</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>67</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.661059712538825</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.93684374485954</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.559542837596118</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.18142824484867</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.237432643058706</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>68</v>
+      </c>
+      <c r="B252" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.057573012808424</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.05926260756924</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0214361066198949</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.68579615829073</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.00723572176423316</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.0344744293027933</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1.03507556043397</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.466383812650038</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.0739185802931415</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.941075171357485</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.241182083492456</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.785698550626758</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.751851003329925</v>
+      </c>
+      <c r="E286" t="n">
+        <v>-0.320784413965358</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.748373771562296</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>66</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-17.4371094021394</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.0000000267398893804098</v>
+      </c>
+      <c r="D287" t="n">
+        <v>6729.2555768532</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-0.00259123898668946</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.99793249273289</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>67</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1.02145932865639</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2.77724472094348</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.60901998875229</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.67721806758604</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.0934998472378777</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>68</v>
+      </c>
+      <c r="B292" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.292547513826448</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.746359781784252</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.459040196913603</v>
+      </c>
+      <c r="E317" t="n">
+        <v>-0.637302606162633</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.523927753707734</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.195565209887461</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.822369715179073</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.737323575554758</v>
+      </c>
+      <c r="E318" t="n">
+        <v>-0.265236615742713</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.790827189414572</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>66</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-18.1371351466605</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.0000000132782942435938</v>
+      </c>
+      <c r="D319" t="n">
+        <v>6628.10716471776</v>
+      </c>
+      <c r="E319" t="n">
+        <v>-0.0027363973900734</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.997816673494984</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>67</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.576250640446327</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1.77935446861525</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.567698858638247</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.01506394046413</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.310075349170018</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>68</v>
+      </c>
+      <c r="B325" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.0571855995889384</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1.05885231471373</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.0207749999799742</v>
+      </c>
+      <c r="E350" t="n">
+        <v>2.75261610801741</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.00591211778132535</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.237553969103949</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.788554332261932</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.750401231411445</v>
+      </c>
+      <c r="E351" t="n">
+        <v>-0.316569268759233</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.751570457275085</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>66</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-17.4347490570591</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.0000000268030792924187</v>
+      </c>
+      <c r="D352" t="n">
+        <v>6711.44862173436</v>
+      </c>
+      <c r="E352" t="n">
+        <v>-0.00259776242651973</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.997927287798484</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>67</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1.01054959003684</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2.74711038470919</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.590322010683177</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.71186161408302</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.0869221741460012</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>68</v>
+      </c>
+      <c r="B358" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>12</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.186872415578216</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.829549567235953</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.736690609127515</v>
+      </c>
+      <c r="E383" t="n">
+        <v>-0.253664717946567</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.799754593656453</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>66</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-18.066358180594</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.0000000142521483442653</v>
+      </c>
+      <c r="D384" t="n">
+        <v>6606.01640529948</v>
+      </c>
+      <c r="E384" t="n">
+        <v>-0.00273483398650067</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.997817920905889</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>67</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.661059712538825</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1.93684374485954</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.559542837596118</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1.18142824484867</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.237432643058706</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>68</v>
+      </c>
+      <c r="B391" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4727,6 +6291,1504 @@
         <v>584</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.0418283642105339</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.04271549609393</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0195895381325093</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.13523993917543</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0327414160809862</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.371041066785713</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.690015604253973</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.446397322584831</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.831190170759151</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.405866206656838</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>66</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.73212138948277</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.3654485708262</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.16881343128457</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.33751710611339</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.0194123125336643</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>537</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.02876429781334</v>
+      </c>
+      <c r="C148" t="n">
+        <v>7.60468342642552</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.07318621770356</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.89041218042714</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0587028556395186</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>570</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.83971622350299</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.29475170495896</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.08456871439949</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.69626525187167</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0898356579438293</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>86</v>
+      </c>
+      <c r="B153" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.522091214255143</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.593278577191416</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.442021163814182</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-1.18114528668727</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.237545012102036</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2.81739734811537</v>
+      </c>
+      <c r="C179" t="n">
+        <v>16.7332431423454</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.16697444679493</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.41427509904205</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0157665531778052</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>537</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2.20589088217372</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9.07833569375648</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.06875238362794</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.06398686540066</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0390189617480718</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>570</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.60821477211698</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.99388803707051</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.08285237050511</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.48516530592882</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.137500039983114</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>86</v>
+      </c>
+      <c r="B186" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.0452411982164595</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.0462801903925</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.0195156615091064</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.31819957501051</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.020438477128025</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>66</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2.72518674668843</v>
+      </c>
+      <c r="C212" t="n">
+        <v>15.2592632776825</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.17042836659417</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2.32836696757313</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.0198926261082691</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>537</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.94321101166414</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6.98113151403507</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.06822601972887</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.8191009915274</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.068896023834015</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>570</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.87559964948307</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6.52473049875561</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.08443642952873</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.72956163995537</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.0837086246352052</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>86</v>
+      </c>
+      <c r="B219" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>66</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2.85767034330198</v>
+      </c>
+      <c r="C244" t="n">
+        <v>17.4208949210948</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.16667147291935</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2.44942163208229</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.0143085843133159</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>537</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2.06428927067433</v>
+      </c>
+      <c r="C245" t="n">
+        <v>7.87969557630029</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.06424489094317</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.93967505810142</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.0524191926286521</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>570</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.62664877093928</v>
+      </c>
+      <c r="C246" t="n">
+        <v>5.08679909340426</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.08336997580707</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.50147115691248</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.133233741426444</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>86</v>
+      </c>
+      <c r="B252" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.0418283642105339</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.04271549609393</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0195895381325093</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.13523993917543</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.0327414160809862</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.371041066785713</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.690015604253973</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.446397322584831</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-0.831190170759151</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.405866206656838</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>66</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2.73212138948277</v>
+      </c>
+      <c r="C286" t="n">
+        <v>15.3654485708262</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.16881343128457</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.33751710611339</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.0194123125336643</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>537</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2.02876429781334</v>
+      </c>
+      <c r="C287" t="n">
+        <v>7.60468342642552</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.07318621770356</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1.89041218042714</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.0587028556395186</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>570</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1.83971622350299</v>
+      </c>
+      <c r="C288" t="n">
+        <v>6.29475170495896</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.08456871439949</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.69626525187167</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.0898356579438293</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>86</v>
+      </c>
+      <c r="B292" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.522091214255143</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.593278577191416</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.442021163814182</v>
+      </c>
+      <c r="E317" t="n">
+        <v>-1.18114528668727</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.237545012102036</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>66</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2.81739734811537</v>
+      </c>
+      <c r="C318" t="n">
+        <v>16.7332431423454</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1.16697444679493</v>
+      </c>
+      <c r="E318" t="n">
+        <v>2.41427509904205</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.0157665531778052</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>537</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2.20589088217372</v>
+      </c>
+      <c r="C319" t="n">
+        <v>9.07833569375648</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1.06875238362794</v>
+      </c>
+      <c r="E319" t="n">
+        <v>2.06398686540066</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.0390189617480718</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>570</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1.60821477211698</v>
+      </c>
+      <c r="C320" t="n">
+        <v>4.99388803707051</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1.08285237050511</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.48516530592882</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.137500039983114</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>86</v>
+      </c>
+      <c r="B325" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.0452411982164595</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1.0462801903925</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.0195156615091064</v>
+      </c>
+      <c r="E350" t="n">
+        <v>2.31819957501051</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.020438477128025</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>66</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2.72518674668843</v>
+      </c>
+      <c r="C351" t="n">
+        <v>15.2592632776825</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.17042836659417</v>
+      </c>
+      <c r="E351" t="n">
+        <v>2.32836696757313</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.0198926261082691</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>537</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1.94321101166414</v>
+      </c>
+      <c r="C352" t="n">
+        <v>6.98113151403507</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1.06822601972887</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1.8191009915274</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.068896023834015</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>570</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1.87559964948307</v>
+      </c>
+      <c r="C353" t="n">
+        <v>6.52473049875561</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1.08443642952873</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.72956163995537</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.0837086246352052</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>86</v>
+      </c>
+      <c r="B358" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>66</v>
+      </c>
+      <c r="B383" t="n">
+        <v>2.85767034330198</v>
+      </c>
+      <c r="C383" t="n">
+        <v>17.4208949210948</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1.16667147291935</v>
+      </c>
+      <c r="E383" t="n">
+        <v>2.44942163208229</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.0143085843133159</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>537</v>
+      </c>
+      <c r="B384" t="n">
+        <v>2.06428927067433</v>
+      </c>
+      <c r="C384" t="n">
+        <v>7.87969557630029</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1.06424489094317</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1.93967505810142</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.0524191926286521</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>570</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1.62664877093928</v>
+      </c>
+      <c r="C385" t="n">
+        <v>5.08679909340426</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1.08336997580707</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1.50147115691248</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.133233741426444</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>86</v>
+      </c>
+      <c r="B391" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5490,6 +8552,1504 @@
         <v>698</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.0524476959992881</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.05384744019974</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0165988346168499</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.1597215834687</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.00157919966413949</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.731178028259893</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.481341621934654</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.325679897130468</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-2.24508185706955</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0247628780952189</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.691101373914395</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.99591256918107</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.75245235793123</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.918465291031166</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.358375322222685</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>652</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.392261861049878</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.48032530019014</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.374772289990355</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.04666719372442</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.295253099430322</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>653</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.27781438864667</v>
+      </c>
+      <c r="C149" t="n">
+        <v>3.58878745308498</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.717740995725686</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.78032799611051</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0750222979800412</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>120</v>
+      </c>
+      <c r="B153" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.567438500862658</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.566975888492791</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.329624789900339</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-1.72146791821763</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0851659489383959</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>102</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.537677666938718</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.71202634654594</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.769717247727119</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.698539195433666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.484840054657891</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>652</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.627992647792294</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.87384533387399</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.368539502218625</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.70400362515212</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0883804099847225</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>653</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.02379851229008</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.78374881050565</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.710768401554211</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.44041084276028</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.149751197843259</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>120</v>
+      </c>
+      <c r="B186" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.0463010695087261</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.04738970059511</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.0162127050981218</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.85585096555478</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.00429216555951992</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>102</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.680068728371137</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.506582174601412</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.501967828504295</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-1.35480540734558</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.175479563354374</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>652</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.341260894834197</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.40672019902443</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.37316994825935</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.914491899538019</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.360458432379577</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>653</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.0628054382323839</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.939126173963734</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.399425611199118</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-0.157239386938247</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.875056188078258</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>120</v>
+      </c>
+      <c r="B219" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>102</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.53959310636524</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.5829854171757</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.499052339549841</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-1.08123550097364</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.279592369987207</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>652</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.55949303828137</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.74978520128891</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.366246071259893</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.5276424300108</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.1266013410016</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>653</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.00515321930071971</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.00516651997258</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.398601857408089</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.0129282370489404</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.989685046600089</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>120</v>
+      </c>
+      <c r="B252" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.0524476959992881</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.05384744019974</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0165988346168499</v>
+      </c>
+      <c r="E284" t="n">
+        <v>3.1597215834687</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.00157919966413949</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.731178028259893</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.481341621934654</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.325679897130468</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-2.24508185706955</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.0247628780952189</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>102</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.691101373914395</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1.99591256918107</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.75245235793123</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.918465291031166</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.358375322222685</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>652</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.392261861049878</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1.48032530019014</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.374772289990355</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1.04666719372442</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.295253099430322</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>653</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1.27781438864667</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.58878745308498</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.717740995725686</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.78032799611051</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.0750222979800412</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>120</v>
+      </c>
+      <c r="B292" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.567438500862658</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.566975888492791</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.329624789900339</v>
+      </c>
+      <c r="E317" t="n">
+        <v>-1.72146791821763</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.0851659489383959</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>102</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.537677666938718</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1.71202634654594</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.769717247727119</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.698539195433666</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.484840054657891</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>652</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.627992647792294</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1.87384533387399</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.368539502218625</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1.70400362515212</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.0883804099847225</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>653</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1.02379851229008</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2.78374881050565</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.710768401554211</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.44041084276028</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.149751197843259</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>120</v>
+      </c>
+      <c r="B325" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.0463010695087261</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1.04738970059511</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.0162127050981218</v>
+      </c>
+      <c r="E350" t="n">
+        <v>2.85585096555478</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.00429216555951992</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>102</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.680068728371137</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.506582174601412</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.501967828504295</v>
+      </c>
+      <c r="E351" t="n">
+        <v>-1.35480540734558</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.175479563354374</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>652</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.341260894834197</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1.40672019902443</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.37316994825935</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.914491899538019</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.360458432379577</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>653</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.0628054382323839</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.939126173963734</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.399425611199118</v>
+      </c>
+      <c r="E353" t="n">
+        <v>-0.157239386938247</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.875056188078258</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>120</v>
+      </c>
+      <c r="B358" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>102</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.53959310636524</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.5829854171757</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.499052339549841</v>
+      </c>
+      <c r="E383" t="n">
+        <v>-1.08123550097364</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.279592369987207</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>652</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.55949303828137</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1.74978520128891</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.366246071259893</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1.5276424300108</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.1266013410016</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>653</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.00515321930071971</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1.00516651997258</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.398601857408089</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.0129282370489404</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.989685046600089</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>120</v>
+      </c>
+      <c r="B391" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
